--- a/docs/image/LOGISTICS_CENTER/物流中心导入模板.xlsx
+++ b/docs/image/LOGISTICS_CENTER/物流中心导入模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>订单号</t>
   </si>
@@ -54,17 +54,42 @@
   </si>
   <si>
     <t>预计到货日期</t>
+  </si>
+  <si>
+    <t>GSU1TV62600MFGE</t>
+  </si>
+  <si>
+    <t>Lucille Malan</t>
+  </si>
+  <si>
+    <t>3148532686</t>
+  </si>
+  <si>
+    <t>MISSOURI</t>
+  </si>
+  <si>
+    <t>Saint Charles</t>
+  </si>
+  <si>
+    <t>2603 Sun Lake dr</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>63301-3045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -536,19 +561,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,7 +582,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,9 +706,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1030,58 +1059,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
     <col min="10" max="13" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>46040</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/image/LOGISTICS_CENTER/物流中心导入模板.xlsx
+++ b/docs/image/LOGISTICS_CENTER/物流中心导入模板.xlsx
@@ -56,7 +56,7 @@
     <t>预计到货日期</t>
   </si>
   <si>
-    <t>GSU1TV62600MFGE</t>
+    <t>GSU1TV62600MFGE1</t>
   </si>
   <si>
     <t>Lucille Malan</t>
@@ -91,7 +91,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,13 +102,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -576,133 +569,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -711,8 +704,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,7 +1057,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
